--- a/data/trans_orig/PER_OLOR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_OLOR-Clase-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de olores en Andalucia</t>
+          <t>Percepción de olores en Andalucia (tasa de respuesta: 99,9%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3978,7 +3978,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción de olores en C.Valenciana</t>
+          <t>Percepción de olores en C.Valenciana (tasa de respuesta: 93,78%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_OLOR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_OLOR-Clase-trans_orig.xlsx
@@ -739,12 +739,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>307781</t>
+          <t>307326</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>335914</t>
+          <t>335973</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -754,12 +754,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>83,94%</t>
+          <t>83,81%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>91,61%</t>
+          <t>91,62%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>257074</t>
+          <t>256076</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>273831</t>
+          <t>274327</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -789,12 +789,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>86,22%</t>
+          <t>85,88%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>91,84%</t>
+          <t>92,0%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -809,12 +809,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>571560</t>
+          <t>570887</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>605460</t>
+          <t>604303</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -824,12 +824,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>85,97%</t>
+          <t>85,87%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>90,89%</t>
         </is>
       </c>
     </row>
@@ -852,12 +852,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22131</t>
+          <t>23583</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>48683</t>
+          <t>50318</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -867,12 +867,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,04%</t>
+          <t>6,43%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,72%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -887,12 +887,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17572</t>
+          <t>18111</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>32708</t>
+          <t>33991</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -902,12 +902,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>6,07%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,97%</t>
+          <t>11,4%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -922,12 +922,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>44783</t>
+          <t>44930</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>75399</t>
+          <t>76798</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -937,12 +937,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>6,74%</t>
+          <t>6,76%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>11,34%</t>
+          <t>11,55%</t>
         </is>
       </c>
     </row>
@@ -965,12 +965,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4302</t>
+          <t>3816</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>19227</t>
+          <t>17714</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -980,12 +980,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,17%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -1000,12 +1000,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4274</t>
+          <t>4332</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>13414</t>
+          <t>12969</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -1015,12 +1015,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,43%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,5%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1035,12 +1035,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>10317</t>
+          <t>10287</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>27117</t>
+          <t>27622</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -1055,7 +1055,7 @@
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,15%</t>
         </is>
       </c>
     </row>
@@ -1195,12 +1195,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>294715</t>
+          <t>293509</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>311883</t>
+          <t>311977</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1210,12 +1210,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>90,58%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,25%</t>
+          <t>96,28%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1230,12 +1230,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>215234</t>
+          <t>215572</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>235266</t>
+          <t>233454</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1245,12 +1245,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>82,9%</t>
+          <t>83,03%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>90,61%</t>
+          <t>89,91%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>515370</t>
+          <t>514576</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>542567</t>
+          <t>541584</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1280,12 +1280,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,29%</t>
+          <t>88,16%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>92,79%</t>
         </is>
       </c>
     </row>
@@ -1308,12 +1308,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9631</t>
+          <t>9811</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26450</t>
+          <t>26544</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1323,12 +1323,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,97%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,16%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1343,12 +1343,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19776</t>
+          <t>21585</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>38724</t>
+          <t>38547</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -1358,12 +1358,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>8,31%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1378,12 +1378,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>34013</t>
+          <t>34227</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>59950</t>
+          <t>59571</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -1393,12 +1393,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,83%</t>
+          <t>5,86%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>10,27%</t>
+          <t>10,21%</t>
         </is>
       </c>
     </row>
@@ -1421,12 +1421,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>634</t>
+          <t>629</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8612</t>
+          <t>8190</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1436,12 +1436,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>0,19%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,66%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1456,12 +1456,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2059</t>
+          <t>2097</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9742</t>
+          <t>9827</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -1471,12 +1471,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,75%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1491,12 +1491,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3734</t>
+          <t>3702</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>14002</t>
+          <t>14659</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1506,12 +1506,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,4%</t>
+          <t>2,51%</t>
         </is>
       </c>
     </row>
@@ -1651,12 +1651,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>399599</t>
+          <t>398699</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>468057</t>
+          <t>466753</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1666,12 +1666,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>84,05%</t>
+          <t>83,86%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>98,45%</t>
+          <t>98,18%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1686,12 +1686,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>74185</t>
+          <t>75150</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>88672</t>
+          <t>88218</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -1701,12 +1701,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>76,04%</t>
+          <t>77,03%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>90,42%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1721,12 +1721,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>481528</t>
+          <t>483933</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>558166</t>
+          <t>560815</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -1736,12 +1736,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>84,04%</t>
+          <t>84,46%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>97,41%</t>
+          <t>97,88%</t>
         </is>
       </c>
     </row>
@@ -1764,12 +1764,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4624</t>
+          <t>6227</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>54173</t>
+          <t>55377</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1779,12 +1779,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,39%</t>
+          <t>11,65%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1799,12 +1799,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>7477</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20962</t>
+          <t>20289</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1814,12 +1814,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>7,66%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1834,12 +1834,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>11063</t>
+          <t>10009</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>68887</t>
+          <t>67384</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1849,12 +1849,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,93%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>12,02%</t>
+          <t>11,76%</t>
         </is>
       </c>
     </row>
@@ -1877,12 +1877,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1429</t>
+          <t>1168</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25992</t>
+          <t>25564</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -1892,12 +1892,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,47%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1912,12 +1912,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>557</t>
+          <t>561</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5513</t>
+          <t>5183</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -1927,12 +1927,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,58%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>5,31%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1947,12 +1947,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2657</t>
+          <t>2188</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>25960</t>
+          <t>25125</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -1962,12 +1962,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,38%</t>
         </is>
       </c>
     </row>
@@ -2107,12 +2107,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>469389</t>
+          <t>469664</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>497297</t>
+          <t>497246</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -2122,12 +2122,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,74%</t>
+          <t>87,79%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>92,96%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2142,12 +2142,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>548963</t>
+          <t>548956</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>617003</t>
+          <t>612596</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -2162,7 +2162,7 @@
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>96,83%</t>
+          <t>96,14%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2177,12 +2177,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1036223</t>
+          <t>1035340</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1115241</t>
+          <t>1109931</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -2192,12 +2192,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>88,4%</t>
+          <t>88,33%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>95,14%</t>
+          <t>94,69%</t>
         </is>
       </c>
     </row>
@@ -2220,12 +2220,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>28951</t>
+          <t>29929</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>55185</t>
+          <t>54395</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -2235,12 +2235,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>5,59%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,32%</t>
+          <t>10,17%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2255,12 +2255,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14995</t>
+          <t>16986</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>65009</t>
+          <t>64530</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -2270,12 +2270,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,35%</t>
+          <t>2,67%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,2%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2290,12 +2290,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>43693</t>
+          <t>46845</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>105350</t>
+          <t>105547</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -2305,12 +2305,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,73%</t>
+          <t>4,0%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>9,0%</t>
         </is>
       </c>
     </row>
@@ -2333,12 +2333,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4219</t>
+          <t>4657</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16290</t>
+          <t>16382</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2348,12 +2348,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,79%</t>
+          <t>0,87%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2368,12 +2368,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>5100</t>
+          <t>5787</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>27065</t>
+          <t>26983</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2383,12 +2383,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,8%</t>
+          <t>0,91%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2403,12 +2403,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>12861</t>
+          <t>12167</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>36330</t>
+          <t>35824</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2418,12 +2418,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,1%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,06%</t>
         </is>
       </c>
     </row>
@@ -2563,12 +2563,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>176743</t>
+          <t>174739</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>195664</t>
+          <t>196055</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -2578,12 +2578,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>83,28%</t>
+          <t>82,34%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,2%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2598,12 +2598,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>358288</t>
+          <t>359804</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>395513</t>
+          <t>395024</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -2613,12 +2613,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,17%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,92%</t>
+          <t>92,8%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2633,12 +2633,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>543013</t>
+          <t>542385</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>585144</t>
+          <t>586076</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -2648,12 +2648,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>85,13%</t>
+          <t>85,03%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,73%</t>
+          <t>91,88%</t>
         </is>
       </c>
     </row>
@@ -2676,12 +2676,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8980</t>
+          <t>8998</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>24790</t>
+          <t>25805</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -2691,12 +2691,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>11,68%</t>
+          <t>12,16%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2711,12 +2711,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>22788</t>
+          <t>22664</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>52720</t>
+          <t>52200</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -2726,12 +2726,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>5,35%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>12,39%</t>
+          <t>12,26%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2746,12 +2746,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>37116</t>
+          <t>38243</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>70618</t>
+          <t>71350</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -2761,12 +2761,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>5,82%</t>
+          <t>6,0%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>11,07%</t>
+          <t>11,19%</t>
         </is>
       </c>
     </row>
@@ -2789,12 +2789,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4132</t>
+          <t>4256</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>17823</t>
+          <t>18525</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -2804,12 +2804,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>2,01%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,4%</t>
+          <t>8,73%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2824,12 +2824,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>6546</t>
+          <t>6662</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>18758</t>
+          <t>19735</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -2839,12 +2839,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,54%</t>
+          <t>1,57%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>4,64%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2859,12 +2859,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>12905</t>
+          <t>12919</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>32773</t>
+          <t>32130</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -2874,12 +2874,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,02%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>5,04%</t>
         </is>
       </c>
     </row>
@@ -3019,12 +3019,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>129545</t>
+          <t>127678</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>158206</t>
+          <t>156208</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3034,12 +3034,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>77,68%</t>
+          <t>76,56%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>94,87%</t>
+          <t>93,67%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3054,12 +3054,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>421694</t>
+          <t>419769</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>453297</t>
+          <t>452380</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -3069,12 +3069,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>85,85%</t>
+          <t>85,46%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>92,1%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3089,12 +3089,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>561155</t>
+          <t>558712</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>603735</t>
+          <t>602390</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -3104,12 +3104,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>85,29%</t>
+          <t>84,92%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>91,76%</t>
+          <t>91,56%</t>
         </is>
       </c>
     </row>
@@ -3132,12 +3132,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>5807</t>
+          <t>6930</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>31520</t>
+          <t>31760</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -3147,12 +3147,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3167,12 +3167,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>28457</t>
+          <t>28829</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>58071</t>
+          <t>59564</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -3182,12 +3182,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,79%</t>
+          <t>5,87%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>11,82%</t>
+          <t>12,13%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3202,12 +3202,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>40699</t>
+          <t>41128</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>81632</t>
+          <t>78551</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -3217,12 +3217,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>6,19%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>12,41%</t>
+          <t>11,94%</t>
         </is>
       </c>
     </row>
@@ -3250,7 +3250,7 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>21453</t>
+          <t>27261</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>12,86%</t>
+          <t>16,35%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3280,12 +3280,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>5939</t>
+          <t>5688</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>20855</t>
+          <t>21484</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -3295,12 +3295,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3315,12 +3315,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>8967</t>
+          <t>8607</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>32772</t>
+          <t>31618</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -3330,12 +3330,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>1,31%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,81%</t>
         </is>
       </c>
     </row>
@@ -3475,12 +3475,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1850034</t>
+          <t>1851832</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1949918</t>
+          <t>1961919</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3490,12 +3490,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>88,94%</t>
+          <t>89,03%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>93,74%</t>
+          <t>94,32%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3510,12 +3510,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1929482</t>
+          <t>1932135</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>2035744</t>
+          <t>2037963</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3525,12 +3525,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>87,45%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>92,14%</t>
+          <t>92,24%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3545,12 +3545,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>3800801</t>
+          <t>3799115</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>3952970</t>
+          <t>3958518</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3560,12 +3560,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>88,61%</t>
+          <t>88,57%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>92,15%</t>
+          <t>92,28%</t>
         </is>
       </c>
     </row>
@@ -3588,12 +3588,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>99444</t>
+          <t>90411</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>179546</t>
+          <t>176351</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -3603,12 +3603,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>4,35%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,63%</t>
+          <t>8,48%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3623,12 +3623,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>134606</t>
+          <t>131854</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>221829</t>
+          <t>217192</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -3638,12 +3638,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>6,09%</t>
+          <t>5,97%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>10,04%</t>
+          <t>9,83%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3658,12 +3658,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>256426</t>
+          <t>255496</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>379459</t>
+          <t>382098</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -3673,12 +3673,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,98%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>8,85%</t>
+          <t>8,91%</t>
         </is>
       </c>
     </row>
@@ -3701,12 +3701,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>30123</t>
+          <t>28035</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>64454</t>
+          <t>64265</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -3716,12 +3716,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,35%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>3,09%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3736,12 +3736,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>38294</t>
+          <t>37585</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>69644</t>
+          <t>68767</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3751,12 +3751,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,11%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3771,12 +3771,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>74830</t>
+          <t>74834</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>124046</t>
+          <t>124432</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -3791,7 +3791,7 @@
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>2,89%</t>
+          <t>2,9%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_OLOR-Clase-trans_orig.xlsx
+++ b/data/trans_orig/PER_OLOR-Clase-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>324314</t>
+          <t>348494</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>307326</t>
+          <t>331958</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>335973</t>
+          <t>360891</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>88,45%</t>
+          <t>88,14%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>83,81%</t>
+          <t>83,96%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>91,28%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>265795</t>
+          <t>289731</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>256076</t>
+          <t>278519</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>274327</t>
+          <t>298985</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>89,14%</t>
+          <t>88,64%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>85,88%</t>
+          <t>85,21%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>92,0%</t>
+          <t>91,47%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>590109</t>
+          <t>638225</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>570887</t>
+          <t>619079</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>604303</t>
+          <t>654133</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>88,76%</t>
+          <t>88,36%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>85,87%</t>
+          <t>85,71%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>90,57%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>33451</t>
+          <t>37421</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>23583</t>
+          <t>26992</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>50318</t>
+          <t>54615</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>9,46%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,72%</t>
+          <t>13,81%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24555</t>
+          <t>28826</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>18111</t>
+          <t>21293</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33991</t>
+          <t>39518</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,82%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>6,51%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>11,4%</t>
+          <t>12,09%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>58006</t>
+          <t>66247</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>44930</t>
+          <t>52256</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>76798</t>
+          <t>85786</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>8,72%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>11,88%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>8918</t>
+          <t>9471</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>3816</t>
+          <t>4057</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>17714</t>
+          <t>18839</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>2,4%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,03%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,32 +995,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>7821</t>
+          <t>8323</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4332</t>
+          <t>4582</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>12969</t>
+          <t>13840</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>2,62%</t>
+          <t>2,55%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,4%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>4,23%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1030,32 +1030,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>16739</t>
+          <t>17794</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>10287</t>
+          <t>10929</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>27622</t>
+          <t>29542</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>2,52%</t>
+          <t>2,46%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,55%</t>
+          <t>1,51%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>4,15%</t>
+          <t>4,09%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>366683</t>
+          <t>395387</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>298171</t>
+          <t>326880</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>298171</t>
+          <t>326880</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>298171</t>
+          <t>326880</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>664854</t>
+          <t>722267</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>664854</t>
+          <t>722267</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>664854</t>
+          <t>722267</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1190,32 +1190,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>304613</t>
+          <t>324295</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>293509</t>
+          <t>312682</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>311977</t>
+          <t>331977</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>94,18%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,58%</t>
+          <t>90,8%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>96,28%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>226011</t>
+          <t>249592</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>215572</t>
+          <t>238118</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>233454</t>
+          <t>257436</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>87,05%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>83,03%</t>
+          <t>83,12%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>89,91%</t>
+          <t>89,86%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>530624</t>
+          <t>573886</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>514576</t>
+          <t>557908</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>541584</t>
+          <t>585421</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,91%</t>
+          <t>90,97%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>88,16%</t>
+          <t>88,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,79%</t>
+          <t>92,8%</t>
         </is>
       </c>
     </row>
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>16549</t>
+          <t>17076</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>9811</t>
+          <t>10127</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>26544</t>
+          <t>27445</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,11%</t>
+          <t>4,96%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>28776</t>
+          <t>31001</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21585</t>
+          <t>23348</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>38547</t>
+          <t>41520</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>11,08%</t>
+          <t>10,82%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>8,15%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>14,85%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>45325</t>
+          <t>48077</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>34227</t>
+          <t>36789</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>59571</t>
+          <t>62312</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,62%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>10,21%</t>
+          <t>9,88%</t>
         </is>
       </c>
     </row>
@@ -1416,32 +1416,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>2884</t>
+          <t>2976</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>629</t>
+          <t>605</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>8190</t>
+          <t>8610</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,19%</t>
+          <t>0,18%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,5%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1451,32 +1451,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>4857</t>
+          <t>5892</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>2097</t>
+          <t>2508</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>9827</t>
+          <t>11387</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>2,06%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,78%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>7742</t>
+          <t>8867</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3702</t>
+          <t>4406</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>14659</t>
+          <t>16276</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,7%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>2,58%</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>324047</t>
+          <t>344347</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>259644</t>
+          <t>286485</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>259644</t>
+          <t>286485</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>259644</t>
+          <t>286485</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>583691</t>
+          <t>630831</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>583691</t>
+          <t>630831</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>583691</t>
+          <t>630831</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1646,32 +1646,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>442079</t>
+          <t>220609</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>398699</t>
+          <t>204116</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>466753</t>
+          <t>231731</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>84,67%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,86%</t>
+          <t>78,34%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>98,18%</t>
+          <t>88,94%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,32 +1681,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>83238</t>
+          <t>94608</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>75150</t>
+          <t>85297</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>88218</t>
+          <t>100298</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>85,32%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>77,03%</t>
+          <t>76,51%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>90,42%</t>
+          <t>89,96%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,32 +1716,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>525317</t>
+          <t>315217</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>483933</t>
+          <t>298894</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>560815</t>
+          <t>328506</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>91,68%</t>
+          <t>84,73%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>84,46%</t>
+          <t>80,34%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>97,88%</t>
+          <t>88,3%</t>
         </is>
       </c>
     </row>
@@ -1759,32 +1759,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>23635</t>
+          <t>29593</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>6227</t>
+          <t>19705</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>55377</t>
+          <t>43645</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>4,97%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>7,56%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,65%</t>
+          <t>16,75%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,32 +1794,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12135</t>
+          <t>14503</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>7477</t>
+          <t>8698</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>20289</t>
+          <t>23511</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>12,44%</t>
+          <t>13,01%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,8%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>20,8%</t>
+          <t>21,09%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,32 +1829,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>35770</t>
+          <t>44096</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>10009</t>
+          <t>32626</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>67384</t>
+          <t>59610</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,76%</t>
+          <t>16,02%</t>
         </is>
       </c>
     </row>
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>9710</t>
+          <t>10355</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>1168</t>
+          <t>4884</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>25564</t>
+          <t>21318</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>1,87%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,38%</t>
+          <t>8,18%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2191</t>
+          <t>2375</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>561</t>
+          <t>638</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>5183</t>
+          <t>5652</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,25%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,58%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>5,07%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>11900</t>
+          <t>12729</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>2188</t>
+          <t>7194</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>25125</t>
+          <t>24368</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>2,08%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,38%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,38%</t>
+          <t>6,55%</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>475424</t>
+          <t>260556</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>97564</t>
+          <t>111486</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>572988</t>
+          <t>372043</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>485500</t>
+          <t>550247</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>469664</t>
+          <t>531618</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>497246</t>
+          <t>563376</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,75%</t>
+          <t>90,53%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>87,79%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>92,95%</t>
+          <t>92,69%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,32 +2137,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>581528</t>
+          <t>427188</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>548956</t>
+          <t>412758</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>612596</t>
+          <t>440228</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>91,26%</t>
+          <t>87,05%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>86,15%</t>
+          <t>84,11%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>96,14%</t>
+          <t>89,71%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2172,32 +2172,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1067028</t>
+          <t>977435</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1035340</t>
+          <t>955717</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1109931</t>
+          <t>996788</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>91,03%</t>
+          <t>88,98%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>88,33%</t>
+          <t>87,0%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>94,69%</t>
+          <t>90,74%</t>
         </is>
       </c>
     </row>
@@ -2215,32 +2215,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>40430</t>
+          <t>45813</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>29929</t>
+          <t>34371</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>54395</t>
+          <t>62419</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>7,54%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,17%</t>
+          <t>10,27%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,32 +2250,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40439</t>
+          <t>45329</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>16986</t>
+          <t>35097</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>64530</t>
+          <t>58007</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>9,24%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>7,15%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>10,13%</t>
+          <t>11,82%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,32 +2285,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>80869</t>
+          <t>91141</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>46845</t>
+          <t>73815</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>105547</t>
+          <t>110397</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,9%</t>
+          <t>8,3%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>9,0%</t>
+          <t>10,05%</t>
         </is>
       </c>
     </row>
@@ -2328,32 +2328,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>9041</t>
+          <t>11718</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>4657</t>
+          <t>6321</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16382</t>
+          <t>20002</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>1,69%</t>
+          <t>1,93%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,87%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,29%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,32 +2363,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>15237</t>
+          <t>18233</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>5787</t>
+          <t>11634</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>26983</t>
+          <t>26342</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,39%</t>
+          <t>3,72%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>2,37%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,32 +2398,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>24278</t>
+          <t>29950</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>12167</t>
+          <t>20464</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>35824</t>
+          <t>41688</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,07%</t>
+          <t>2,73%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,04%</t>
+          <t>1,86%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,79%</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>534971</t>
+          <t>607778</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>534971</t>
+          <t>607778</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>534971</t>
+          <t>607778</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>637204</t>
+          <t>490749</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1172175</t>
+          <t>1098527</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1172175</t>
+          <t>1098527</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1172175</t>
+          <t>1098527</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2558,32 +2558,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>187514</t>
+          <t>225094</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>174739</t>
+          <t>210466</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>196055</t>
+          <t>234438</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>88,36%</t>
+          <t>88,51%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>82,34%</t>
+          <t>82,75%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2593,32 +2593,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>373953</t>
+          <t>342718</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>359804</t>
+          <t>328895</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>395024</t>
+          <t>354173</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>87,85%</t>
+          <t>83,99%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>84,53%</t>
+          <t>80,6%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>92,8%</t>
+          <t>86,79%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2628,32 +2628,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>561467</t>
+          <t>567812</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>542385</t>
+          <t>549508</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>586076</t>
+          <t>582168</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>88,02%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>85,03%</t>
+          <t>82,96%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>91,88%</t>
+          <t>87,89%</t>
         </is>
       </c>
     </row>
@@ -2671,32 +2671,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>15211</t>
+          <t>19124</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>8998</t>
+          <t>11755</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>25805</t>
+          <t>30511</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,17%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,24%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>12,16%</t>
+          <t>12,0%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2706,32 +2706,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>39587</t>
+          <t>52350</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>22664</t>
+          <t>41949</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>52200</t>
+          <t>64625</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>9,3%</t>
+          <t>12,83%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>10,28%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>12,26%</t>
+          <t>15,84%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2741,32 +2741,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>54798</t>
+          <t>71474</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>38243</t>
+          <t>58840</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>71350</t>
+          <t>88255</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>8,59%</t>
+          <t>10,79%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>11,19%</t>
+          <t>13,32%</t>
         </is>
       </c>
     </row>
@@ -2784,32 +2784,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>9494</t>
+          <t>10111</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4256</t>
+          <t>4522</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>18525</t>
+          <t>19574</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>3,98%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,01%</t>
+          <t>1,78%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>8,73%</t>
+          <t>7,7%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2819,32 +2819,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>12129</t>
+          <t>12999</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>6662</t>
+          <t>8268</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>19735</t>
+          <t>20574</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,85%</t>
+          <t>3,19%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,57%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2854,32 +2854,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>21623</t>
+          <t>23110</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>12919</t>
+          <t>15457</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>32130</t>
+          <t>33976</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>5,04%</t>
+          <t>5,13%</t>
         </is>
       </c>
     </row>
@@ -2897,17 +2897,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>212219</t>
+          <t>254329</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2932,17 +2932,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>425669</t>
+          <t>408067</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>425669</t>
+          <t>408067</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>425669</t>
+          <t>408067</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2967,17 +2967,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>637888</t>
+          <t>662396</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>637888</t>
+          <t>662396</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>637888</t>
+          <t>662396</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3014,32 +3014,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>145858</t>
+          <t>149526</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>127678</t>
+          <t>133277</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>156208</t>
+          <t>159725</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>87,47%</t>
+          <t>88,22%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>76,56%</t>
+          <t>78,63%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>93,67%</t>
+          <t>94,23%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3049,32 +3049,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>439732</t>
+          <t>488186</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>419769</t>
+          <t>469887</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>452380</t>
+          <t>502312</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>85,46%</t>
+          <t>85,72%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>92,1%</t>
+          <t>91,64%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3084,32 +3084,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>585590</t>
+          <t>637712</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>558712</t>
+          <t>612706</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>602390</t>
+          <t>654819</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>88,86%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>84,92%</t>
+          <t>85,38%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>91,56%</t>
+          <t>91,24%</t>
         </is>
       </c>
     </row>
@@ -3127,32 +3127,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>15463</t>
+          <t>15137</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>6930</t>
+          <t>6970</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>31760</t>
+          <t>30098</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>9,27%</t>
+          <t>8,93%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>19,05%</t>
+          <t>17,76%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3162,67 +3162,67 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>40471</t>
+          <t>48656</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>28829</t>
+          <t>35962</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>59564</t>
+          <t>65873</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>8,88%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,87%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
+          <t>12,02%</t>
+        </is>
+      </c>
+      <c r="Q25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>63793</t>
+        </is>
+      </c>
+      <c r="S25" s="2" t="inlineStr">
+        <is>
+          <t>48739</t>
+        </is>
+      </c>
+      <c r="T25" s="2" t="inlineStr">
+        <is>
+          <t>87057</t>
+        </is>
+      </c>
+      <c r="U25" s="2" t="inlineStr">
+        <is>
+          <t>8,89%</t>
+        </is>
+      </c>
+      <c r="V25" s="2" t="inlineStr">
+        <is>
+          <t>6,79%</t>
+        </is>
+      </c>
+      <c r="W25" s="2" t="inlineStr">
+        <is>
           <t>12,13%</t>
-        </is>
-      </c>
-      <c r="Q25" s="2" t="inlineStr">
-        <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>55934</t>
-        </is>
-      </c>
-      <c r="S25" s="2" t="inlineStr">
-        <is>
-          <t>41128</t>
-        </is>
-      </c>
-      <c r="T25" s="2" t="inlineStr">
-        <is>
-          <t>78551</t>
-        </is>
-      </c>
-      <c r="U25" s="2" t="inlineStr">
-        <is>
-          <t>8,5%</t>
-        </is>
-      </c>
-      <c r="V25" s="2" t="inlineStr">
-        <is>
-          <t>6,25%</t>
-        </is>
-      </c>
-      <c r="W25" s="2" t="inlineStr">
-        <is>
-          <t>11,94%</t>
         </is>
       </c>
     </row>
@@ -3240,7 +3240,7 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>5440</t>
+          <t>4834</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
@@ -3250,12 +3250,12 @@
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>27261</t>
+          <t>24251</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>3,26%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
@@ -3265,7 +3265,7 @@
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>16,35%</t>
+          <t>14,31%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3275,32 +3275,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>10984</t>
+          <t>11320</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>5688</t>
+          <t>5896</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>21484</t>
+          <t>21550</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>2,07%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>1,08%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3310,32 +3310,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>16425</t>
+          <t>16154</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>8607</t>
+          <t>8574</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>31618</t>
+          <t>30353</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,25%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,23%</t>
         </is>
       </c>
     </row>
@@ -3353,17 +3353,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>166761</t>
+          <t>169497</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3388,17 +3388,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>491187</t>
+          <t>548162</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3423,17 +3423,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>657948</t>
+          <t>717659</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3470,32 +3470,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>1889879</t>
+          <t>1818265</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>1851832</t>
+          <t>1786640</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>1961919</t>
+          <t>1850271</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>90,85%</t>
+          <t>89,49%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>89,03%</t>
+          <t>87,93%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>94,32%</t>
+          <t>91,06%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3505,32 +3505,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>1970258</t>
+          <t>1892023</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>1932135</t>
+          <t>1862006</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>2037963</t>
+          <t>1921084</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>87,12%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>87,45%</t>
+          <t>85,73%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>88,45%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3540,32 +3540,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>3860136</t>
+          <t>3710288</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>3799115</t>
+          <t>3666905</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>3958518</t>
+          <t>3752340</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>89,99%</t>
+          <t>88,26%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>88,57%</t>
+          <t>87,23%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>92,28%</t>
+          <t>89,26%</t>
         </is>
       </c>
     </row>
@@ -3583,32 +3583,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>144739</t>
+          <t>164165</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>90411</t>
+          <t>134699</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>176351</t>
+          <t>192624</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>6,96%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,35%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>8,48%</t>
+          <t>9,48%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3618,32 +3618,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>185963</t>
+          <t>220665</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>131854</t>
+          <t>194592</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>217192</t>
+          <t>249489</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>8,42%</t>
+          <t>10,16%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>9,83%</t>
+          <t>11,49%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3653,32 +3653,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>330703</t>
+          <t>384830</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>255496</t>
+          <t>346222</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>382098</t>
+          <t>423400</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>7,71%</t>
+          <t>9,15%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>5,96%</t>
+          <t>8,24%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>10,07%</t>
         </is>
       </c>
     </row>
@@ -3696,32 +3696,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>45488</t>
+          <t>49464</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>28035</t>
+          <t>35525</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>64265</t>
+          <t>68037</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>2,19%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>1,35%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,09%</t>
+          <t>3,35%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3731,32 +3731,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>53219</t>
+          <t>59141</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>37585</t>
+          <t>46758</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>68767</t>
+          <t>73033</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,72%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,7%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3766,32 +3766,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>98707</t>
+          <t>108605</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>74834</t>
+          <t>90688</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>124432</t>
+          <t>131157</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,58%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,74%</t>
+          <t>2,16%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>3,12%</t>
         </is>
       </c>
     </row>
@@ -3809,17 +3809,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>2080106</t>
+          <t>2031894</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>2080106</t>
+          <t>2031894</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>2080106</t>
+          <t>2031894</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3844,17 +3844,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>2209440</t>
+          <t>2171829</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>2209440</t>
+          <t>2171829</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>2209440</t>
+          <t>2171829</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3879,17 +3879,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>4289545</t>
+          <t>4203723</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>4289545</t>
+          <t>4203723</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>4289545</t>
+          <t>4203723</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
